--- a/tests/test2.xlsx
+++ b/tests/test2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,31 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
@@ -593,6 +618,331 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tucson, Arizona, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fall League 2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>kpieroway@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Tucson, Arizona, United States</t>
         </is>
